--- a/PBJ_EU/pbj_eu.xlsx
+++ b/PBJ_EU/pbj_eu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shannon\Dropbox\moog\PBJ_New\PBJ_EU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shannon\Dropbox\moog\PBJ\PBJ_EU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4609A718-7195-4F72-B841-ADA69C066AB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083D1D8E-27D4-4C1D-8A93-F295078EAFA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pbj_eu" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>Reference</t>
   </si>
@@ -52,13 +52,13 @@
     <t>478-7366-1-ND</t>
   </si>
   <si>
-    <t xml:space="preserve">C4 C5 C6 C7 C8 C9 C10 C11 </t>
+    <t xml:space="preserve">C4 C5 C6 C7 </t>
   </si>
   <si>
     <t>.1uF</t>
   </si>
   <si>
-    <t>478-2472-ND</t>
+    <t>478-3188-ND</t>
   </si>
   <si>
     <t xml:space="preserve">D13 </t>
@@ -88,6 +88,15 @@
     <t>732-11401-ND</t>
   </si>
   <si>
+    <t xml:space="preserve">D6 D3 D12 D9 D15 D14 D17 D16 </t>
+  </si>
+  <si>
+    <t>1N4733A</t>
+  </si>
+  <si>
+    <t>1N4733AFS-ND</t>
+  </si>
+  <si>
     <t xml:space="preserve">J1 J2 J3 J4 </t>
   </si>
   <si>
@@ -115,6 +124,12 @@
     <t>S7111-ND</t>
   </si>
   <si>
+    <t xml:space="preserve">R1 R2 R3 R4 </t>
+  </si>
+  <si>
+    <t>PPC470W-1CT-ND</t>
+  </si>
+  <si>
     <t xml:space="preserve">R11 R35 R10 R34 </t>
   </si>
   <si>
@@ -133,91 +148,91 @@
     <t>CF14JT330KCT-ND</t>
   </si>
   <si>
-    <t xml:space="preserve">R2 R26 R1 R25 </t>
-  </si>
-  <si>
-    <t>91K</t>
-  </si>
-  <si>
-    <t>CF14JT91K0CT-ND</t>
+    <t>10K</t>
+  </si>
+  <si>
+    <t>CF14JT10K0CT-ND</t>
+  </si>
+  <si>
+    <t>1K</t>
+  </si>
+  <si>
+    <t>CF14JT1K00CT-ND</t>
+  </si>
+  <si>
+    <t>2.2K</t>
+  </si>
+  <si>
+    <t>CF14JT2K20CT-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW1 SW2 </t>
+  </si>
+  <si>
+    <t>SW_SPDT</t>
+  </si>
+  <si>
+    <t>CKN10397-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP1 TP2 TP3 TP4 TP7 TP8 TP9 TP10 </t>
+  </si>
+  <si>
+    <t>TestPoint</t>
+  </si>
+  <si>
+    <t>36-5006-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U1 U2 </t>
+  </si>
+  <si>
+    <t>TL072</t>
+  </si>
+  <si>
+    <t>296-14997-5-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U7 </t>
+  </si>
+  <si>
+    <t>MC7805CTG</t>
+  </si>
+  <si>
+    <t>MC7805CTGOS-ND</t>
+  </si>
+  <si>
+    <t>AE9986-ND</t>
+  </si>
+  <si>
+    <t>8 pin socket</t>
+  </si>
+  <si>
+    <t>S1 S2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R14 R38 R13 R37 </t>
   </si>
   <si>
     <t xml:space="preserve">R20 R8 R45 R32 R19 R7 R44 R31 </t>
   </si>
   <si>
-    <t>20K</t>
-  </si>
-  <si>
-    <t>CF14JT20K0CT-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R23 R14 R48 R38 R22 R13 R47 R37 </t>
-  </si>
-  <si>
-    <t>1K</t>
-  </si>
-  <si>
-    <t>CF14JT1K00CT-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R43 </t>
-  </si>
-  <si>
-    <t>2.2K</t>
-  </si>
-  <si>
-    <t>CF14JT2K20CT-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R5 R29 R4 R28 </t>
-  </si>
-  <si>
-    <t>200K</t>
-  </si>
-  <si>
-    <t>CF14JT200KCT-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SW1 SW2 </t>
-  </si>
-  <si>
-    <t>SW_SPDT</t>
-  </si>
-  <si>
-    <t>CKN10397-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP1 TP2 TP3 TP4 TP7 TP8 TP9 TP10 </t>
-  </si>
-  <si>
-    <t>TestPoint</t>
-  </si>
-  <si>
-    <t>36-5006-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U1 U3 U4 U2 </t>
-  </si>
-  <si>
-    <t>TL072</t>
-  </si>
-  <si>
-    <t>296-14997-5-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U7 </t>
-  </si>
-  <si>
-    <t>MC7805CTG</t>
-  </si>
-  <si>
-    <t>MC7805CTGOS-ND</t>
+    <t xml:space="preserve">R43 R23 R48 R22 R47 </t>
+  </si>
+  <si>
+    <t>PW1</t>
+  </si>
+  <si>
+    <t>Power Cable</t>
+  </si>
+  <si>
+    <t>H3CCS-1618G-ND</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1051,14 +1066,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="48.7109375" customWidth="1"/>
+    <col min="4" max="5" width="29.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1107,7 +1126,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1163,7 +1182,7 @@
         <v>22</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
@@ -1177,7 +1196,7 @@
         <v>25</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
@@ -1205,7 +1224,7 @@
         <v>31</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
         <v>32</v>
@@ -1221,137 +1240,165 @@
       <c r="B12">
         <v>4</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12">
+        <v>470</v>
+      </c>
+      <c r="D12" t="s">
         <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13">
         <v>4</v>
       </c>
       <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
         <v>38</v>
-      </c>
-      <c r="D13" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="B14">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B15">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B19">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>62</v>
       </c>
-      <c r="D21" t="s">
-        <v>63</v>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/PBJ_EU/pbj_eu.xlsx
+++ b/PBJ_EU/pbj_eu.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shannon\Dropbox\moog\PBJ\PBJ_EU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shann\Dropbox\moog\PBJ\PBJ_EU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083D1D8E-27D4-4C1D-8A93-F295078EAFA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A57EC47-841E-4605-9550-A430F9500B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1075,6 +1075,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="33.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
     <col min="3" max="3" width="48.7109375" customWidth="1"/>
     <col min="4" max="5" width="29.28515625" customWidth="1"/>
   </cols>
